--- a/Team-Data/2007-08/11-27-2007-08.xlsx
+++ b/Team-Data/2007-08/11-27-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,91 +733,91 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.385</v>
+        <v>0.417</v>
       </c>
       <c r="H2" t="n">
         <v>48.8</v>
       </c>
       <c r="I2" t="n">
-        <v>34.6</v>
+        <v>35.3</v>
       </c>
       <c r="J2" t="n">
-        <v>78.5</v>
+        <v>79.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.441</v>
+        <v>0.444</v>
       </c>
       <c r="L2" t="n">
         <v>4.2</v>
       </c>
       <c r="M2" t="n">
-        <v>13.8</v>
+        <v>14.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3</v>
+        <v>0.296</v>
       </c>
       <c r="O2" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P2" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.759</v>
+        <v>0.768</v>
       </c>
       <c r="R2" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="T2" t="n">
-        <v>41.2</v>
+        <v>41.5</v>
       </c>
       <c r="U2" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="V2" t="n">
         <v>15.9</v>
       </c>
       <c r="W2" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y2" t="n">
         <v>6.3</v>
       </c>
-      <c r="Y2" t="n">
-        <v>6.1</v>
-      </c>
       <c r="Z2" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.2</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>-3.2</v>
+        <v>-2.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
         <v>21</v>
@@ -759,31 +826,31 @@
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AN2" t="n">
         <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR2" t="n">
         <v>8</v>
@@ -792,34 +859,34 @@
         <v>30</v>
       </c>
       <c r="AT2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU2" t="n">
         <v>23</v>
       </c>
-      <c r="AU2" t="n">
-        <v>27</v>
-      </c>
       <c r="AV2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
         <v>2</v>
       </c>
       <c r="AY2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AZ2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.846</v>
+        <v>0.917</v>
       </c>
       <c r="H3" t="n">
-        <v>48.8</v>
+        <v>48.4</v>
       </c>
       <c r="I3" t="n">
         <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>76.2</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.49</v>
+        <v>0.496</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="M3" t="n">
-        <v>18.4</v>
+        <v>17.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0.381</v>
+        <v>0.379</v>
       </c>
       <c r="O3" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P3" t="n">
         <v>27.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.754</v>
+        <v>0.76</v>
       </c>
       <c r="R3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S3" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="T3" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="U3" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="V3" t="n">
-        <v>16.5</v>
+        <v>16.8</v>
       </c>
       <c r="W3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.6</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,25 +1005,25 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>1</v>
       </c>
       <c r="AL3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
         <v>10</v>
@@ -968,13 +1035,13 @@
         <v>14</v>
       </c>
       <c r="AR3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AS3" t="n">
         <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
@@ -986,16 +1053,16 @@
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>20</v>
       </c>
-      <c r="AZ3" t="n">
-        <v>21</v>
-      </c>
       <c r="BA3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -1030,106 +1097,106 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>0.429</v>
+        <v>0.462</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
       </c>
       <c r="I4" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="J4" t="n">
-        <v>79.5</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L4" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="M4" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.372</v>
+        <v>0.381</v>
       </c>
       <c r="O4" t="n">
         <v>17.7</v>
       </c>
       <c r="P4" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.678</v>
       </c>
       <c r="R4" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="S4" t="n">
-        <v>29.7</v>
+        <v>30.4</v>
       </c>
       <c r="T4" t="n">
-        <v>42.9</v>
+        <v>43.8</v>
       </c>
       <c r="U4" t="n">
         <v>19.4</v>
       </c>
       <c r="V4" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="W4" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.2</v>
+        <v>93.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.1</v>
+        <v>-2.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
         <v>14</v>
@@ -1138,7 +1205,7 @@
         <v>19</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
         <v>20</v>
@@ -1150,40 +1217,40 @@
         <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AT4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ4" t="n">
         <v>26</v>
       </c>
       <c r="BA4" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>24</v>
+      </c>
+      <c r="BC4" t="n">
         <v>19</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>25</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -1212,37 +1279,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>0.231</v>
+        <v>0.167</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="J5" t="n">
-        <v>86.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.386</v>
+        <v>0.385</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>17.2</v>
+        <v>17.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.29</v>
+        <v>0.283</v>
       </c>
       <c r="O5" t="n">
         <v>15.2</v>
@@ -1251,46 +1318,46 @@
         <v>21.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.704</v>
+        <v>0.705</v>
       </c>
       <c r="R5" t="n">
-        <v>14.2</v>
+        <v>13.4</v>
       </c>
       <c r="S5" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="T5" t="n">
-        <v>44.2</v>
+        <v>42.9</v>
       </c>
       <c r="U5" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V5" t="n">
         <v>15.8</v>
       </c>
       <c r="W5" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>86.8</v>
+        <v>86.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.300000000000001</v>
+        <v>-10</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
         <v>28</v>
@@ -1302,13 +1369,13 @@
         <v>28</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>28</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1317,7 +1384,7 @@
         <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN5" t="n">
         <v>30</v>
@@ -1332,40 +1399,40 @@
         <v>25</v>
       </c>
       <c r="AR5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AT5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AU5" t="n">
         <v>22</v>
       </c>
       <c r="AV5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB5" t="n">
         <v>30</v>
       </c>
       <c r="BC5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -1394,97 +1461,97 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
         <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.571</v>
       </c>
       <c r="H6" t="n">
-        <v>48.7</v>
+        <v>48.4</v>
       </c>
       <c r="I6" t="n">
         <v>38</v>
       </c>
       <c r="J6" t="n">
-        <v>84.40000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L6" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M6" t="n">
         <v>19.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.368</v>
+        <v>0.377</v>
       </c>
       <c r="O6" t="n">
-        <v>18.8</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R6" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="S6" t="n">
-        <v>32.7</v>
+        <v>32.3</v>
       </c>
       <c r="T6" t="n">
         <v>45.9</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="W6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.1</v>
+        <v>101.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
         <v>5</v>
@@ -1493,7 +1560,7 @@
         <v>6</v>
       </c>
       <c r="AK6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
         <v>9</v>
@@ -1502,19 +1569,19 @@
         <v>11</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP6" t="n">
         <v>16</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>26</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1523,22 +1590,22 @@
         <v>1</v>
       </c>
       <c r="AU6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AV6" t="n">
         <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX6" t="n">
         <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA6" t="n">
         <v>23</v>
@@ -1547,7 +1614,7 @@
         <v>12</v>
       </c>
       <c r="BC6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>4.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG7" t="n">
         <v>6</v>
@@ -1681,13 +1748,13 @@
         <v>17</v>
       </c>
       <c r="AM7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN7" t="n">
         <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP7" t="n">
         <v>12</v>
@@ -1702,10 +1769,10 @@
         <v>11</v>
       </c>
       <c r="AT7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV7" t="n">
         <v>3</v>
@@ -1717,10 +1784,10 @@
         <v>3</v>
       </c>
       <c r="AY7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -1758,106 +1825,106 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.643</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J8" t="n">
-        <v>83.40000000000001</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.449</v>
+        <v>0.457</v>
       </c>
       <c r="L8" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M8" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.344</v>
+        <v>0.339</v>
       </c>
       <c r="O8" t="n">
-        <v>23.5</v>
+        <v>22.9</v>
       </c>
       <c r="P8" t="n">
-        <v>31.3</v>
+        <v>30.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.751</v>
+        <v>0.745</v>
       </c>
       <c r="R8" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="S8" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="T8" t="n">
-        <v>44.7</v>
+        <v>44.5</v>
       </c>
       <c r="U8" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V8" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="W8" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="X8" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.5</v>
+        <v>105.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
         <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
         <v>10</v>
@@ -1866,7 +1933,7 @@
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>3</v>
@@ -1875,16 +1942,16 @@
         <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
@@ -1899,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC8" t="n">
         <v>6</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG9" t="n">
         <v>10</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>8</v>
       </c>
       <c r="AH9" t="n">
         <v>18</v>
@@ -2039,7 +2106,7 @@
         <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL9" t="n">
         <v>19</v>
@@ -2051,7 +2118,7 @@
         <v>11</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP9" t="n">
         <v>18</v>
@@ -2060,13 +2127,13 @@
         <v>24</v>
       </c>
       <c r="AR9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU9" t="n">
         <v>4</v>
@@ -2078,16 +2145,16 @@
         <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
         <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>-1.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>13</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2230,16 +2297,16 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO10" t="n">
         <v>16</v>
       </c>
-      <c r="AO10" t="n">
-        <v>18</v>
-      </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AR10" t="n">
         <v>11</v>
@@ -2248,19 +2315,19 @@
         <v>27</v>
       </c>
       <c r="AT10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>5</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
@@ -2269,13 +2336,13 @@
         <v>23</v>
       </c>
       <c r="BA10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>13</v>
@@ -2400,10 +2467,10 @@
         <v>20</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
         <v>15</v>
@@ -2415,13 +2482,13 @@
         <v>28</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR11" t="n">
         <v>7</v>
@@ -2430,19 +2497,19 @@
         <v>12</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY11" t="n">
         <v>12</v>
@@ -2454,7 +2521,7 @@
         <v>20</v>
       </c>
       <c r="BB11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC11" t="n">
         <v>12</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -2486,100 +2553,100 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>0.467</v>
+        <v>0.429</v>
       </c>
       <c r="H12" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.9</v>
+        <v>37.5</v>
       </c>
       <c r="J12" t="n">
-        <v>86.59999999999999</v>
+        <v>86.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.438</v>
+        <v>0.435</v>
       </c>
       <c r="L12" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M12" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.34</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="P12" t="n">
         <v>26.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.743</v>
+        <v>0.75</v>
       </c>
       <c r="R12" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S12" t="n">
-        <v>33.2</v>
+        <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>45.7</v>
+        <v>44.8</v>
       </c>
       <c r="U12" t="n">
-        <v>22.3</v>
+        <v>21.7</v>
       </c>
       <c r="V12" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="W12" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y12" t="n">
         <v>5.4</v>
       </c>
-      <c r="Y12" t="n">
-        <v>5.6</v>
-      </c>
       <c r="Z12" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.4</v>
+        <v>102.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.3</v>
+        <v>-2.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
         <v>2</v>
@@ -2594,7 +2661,7 @@
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
         <v>13</v>
@@ -2603,31 +2670,31 @@
         <v>14</v>
       </c>
       <c r="AQ12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
         <v>9</v>
       </c>
       <c r="AS12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AW12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
         <v>7</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>30</v>
@@ -2636,10 +2703,10 @@
         <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>-4.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
         <v>13</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
         <v>18</v>
@@ -2767,7 +2834,7 @@
         <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
         <v>16</v>
@@ -2788,16 +2855,16 @@
         <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS13" t="n">
         <v>6</v>
       </c>
       <c r="AT13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV13" t="n">
         <v>14</v>
@@ -2806,10 +2873,10 @@
         <v>26</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ13" t="n">
         <v>11</v>
@@ -2818,10 +2885,10 @@
         <v>17</v>
       </c>
       <c r="BB13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -2850,73 +2917,73 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.571</v>
+        <v>0.538</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J14" t="n">
         <v>79.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="L14" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.5</v>
+        <v>19.1</v>
       </c>
       <c r="N14" t="n">
         <v>0.355</v>
       </c>
       <c r="O14" t="n">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="P14" t="n">
-        <v>31.3</v>
+        <v>30.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.783</v>
+        <v>0.779</v>
       </c>
       <c r="R14" t="n">
         <v>10.7</v>
       </c>
       <c r="S14" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44.7</v>
+        <v>44.5</v>
       </c>
       <c r="U14" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V14" t="n">
-        <v>16.3</v>
+        <v>16.6</v>
       </c>
       <c r="W14" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y14" t="n">
         <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA14" t="n">
         <v>23.8</v>
@@ -2925,16 +2992,16 @@
         <v>105.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="n">
         <v>10</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>9</v>
       </c>
       <c r="AG14" t="n">
         <v>12</v>
@@ -2946,19 +3013,19 @@
         <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
         <v>12</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
         <v>1</v>
@@ -2967,43 +3034,43 @@
         <v>1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR14" t="n">
         <v>17</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AU14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
         <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>0.357</v>
+        <v>0.308</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3050,133 +3117,133 @@
         <v>37.6</v>
       </c>
       <c r="J15" t="n">
-        <v>80.2</v>
+        <v>80.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.469</v>
+        <v>0.467</v>
       </c>
       <c r="L15" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="M15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.397</v>
+        <v>0.389</v>
       </c>
       <c r="O15" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="P15" t="n">
-        <v>28.1</v>
+        <v>27.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.768</v>
+        <v>0.773</v>
       </c>
       <c r="R15" t="n">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="S15" t="n">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
       <c r="T15" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="U15" t="n">
-        <v>21.6</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
-        <v>16.2</v>
+        <v>16.7</v>
       </c>
       <c r="W15" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="X15" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="AA15" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE15" t="n">
         <v>24</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>105.1</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
       </c>
       <c r="AF15" t="n">
         <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>8</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL15" t="n">
         <v>6</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>5</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
         <v>9</v>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ15" t="n">
         <v>9</v>
       </c>
       <c r="AR15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
         <v>19</v>
       </c>
       <c r="AU15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA15" t="n">
         <v>6</v>
@@ -3185,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="BC15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -3214,88 +3281,88 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>0.286</v>
+        <v>0.231</v>
       </c>
       <c r="H16" t="n">
         <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>33.9</v>
+        <v>33.4</v>
       </c>
       <c r="J16" t="n">
-        <v>75.90000000000001</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.446</v>
+        <v>0.437</v>
       </c>
       <c r="L16" t="n">
         <v>4.6</v>
       </c>
       <c r="M16" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.322</v>
+        <v>0.313</v>
       </c>
       <c r="O16" t="n">
-        <v>16.6</v>
+        <v>16</v>
       </c>
       <c r="P16" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.675</v>
       </c>
       <c r="R16" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="S16" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="T16" t="n">
-        <v>38.1</v>
+        <v>38.7</v>
       </c>
       <c r="U16" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="V16" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W16" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="X16" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>89</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>-3.2</v>
+        <v>-5</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF16" t="n">
         <v>27</v>
@@ -3310,55 +3377,55 @@
         <v>27</v>
       </c>
       <c r="AJ16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM16" t="n">
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO16" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AP16" t="n">
         <v>22</v>
       </c>
       <c r="AQ16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AR16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS16" t="n">
         <v>23</v>
       </c>
       <c r="AT16" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AU16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW16" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA16" t="n">
         <v>21</v>
@@ -3367,7 +3434,7 @@
         <v>29</v>
       </c>
       <c r="BC16" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.583</v>
+        <v>0.636</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
@@ -3414,76 +3481,76 @@
         <v>37.2</v>
       </c>
       <c r="J17" t="n">
-        <v>80.59999999999999</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>14.4</v>
+        <v>13.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.341</v>
+        <v>0.362</v>
       </c>
       <c r="O17" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="P17" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.744</v>
+        <v>0.73</v>
       </c>
       <c r="R17" t="n">
         <v>12.5</v>
       </c>
       <c r="S17" t="n">
-        <v>30.1</v>
+        <v>30.7</v>
       </c>
       <c r="T17" t="n">
-        <v>42.6</v>
+        <v>43.3</v>
       </c>
       <c r="U17" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="X17" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y17" t="n">
         <v>5.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
         <v>5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AH17" t="n">
         <v>18</v>
@@ -3495,40 +3562,40 @@
         <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
         <v>17</v>
       </c>
       <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>20</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>10</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AT17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU17" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW17" t="n">
         <v>25</v>
@@ -3537,19 +3604,19 @@
         <v>4</v>
       </c>
       <c r="AY17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB17" t="n">
         <v>17</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -3656,16 +3723,16 @@
         <v>-7.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF18" t="n">
         <v>27</v>
       </c>
       <c r="AG18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH18" t="n">
         <v>18</v>
@@ -3677,7 +3744,7 @@
         <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL18" t="n">
         <v>13</v>
@@ -3686,7 +3753,7 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3707,13 +3774,13 @@
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AV18" t="n">
         <v>20</v>
       </c>
       <c r="AW18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX18" t="n">
         <v>17</v>
@@ -3728,7 +3795,7 @@
         <v>28</v>
       </c>
       <c r="BB18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -3760,97 +3827,97 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>0.467</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>31.1</v>
+        <v>30.6</v>
       </c>
       <c r="J19" t="n">
-        <v>74.7</v>
+        <v>74</v>
       </c>
       <c r="K19" t="n">
-        <v>0.416</v>
+        <v>0.413</v>
       </c>
       <c r="L19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>17.8</v>
+        <v>17.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.315</v>
+        <v>0.317</v>
       </c>
       <c r="O19" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="P19" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.734</v>
+        <v>0.731</v>
       </c>
       <c r="R19" t="n">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="S19" t="n">
-        <v>30.7</v>
+        <v>30.2</v>
       </c>
       <c r="T19" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="U19" t="n">
-        <v>22.1</v>
+        <v>21.6</v>
       </c>
       <c r="V19" t="n">
-        <v>17.5</v>
+        <v>17.9</v>
       </c>
       <c r="W19" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y19" t="n">
         <v>4.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>89.40000000000001</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="AC19" t="n">
         <v>-6.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF19" t="n">
         <v>13</v>
       </c>
-      <c r="AF19" t="n">
-        <v>18</v>
-      </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3859,16 +3926,16 @@
         <v>30</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
         <v>20</v>
       </c>
       <c r="AM19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>8</v>
@@ -3883,31 +3950,31 @@
         <v>22</v>
       </c>
       <c r="AS19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AT19" t="n">
         <v>27</v>
       </c>
       <c r="AU19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW19" t="n">
         <v>24</v>
       </c>
       <c r="AX19" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AY19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ19" t="n">
         <v>28</v>
       </c>
       <c r="BA19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -4026,10 +4093,10 @@
         <v>5</v>
       </c>
       <c r="AF20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG20" t="n">
         <v>9</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>7</v>
       </c>
       <c r="AH20" t="n">
         <v>16</v>
@@ -4050,7 +4117,7 @@
         <v>8</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
         <v>28</v>
@@ -4086,7 +4153,7 @@
         <v>5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-6.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF21" t="n">
         <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4223,7 +4290,7 @@
         <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>23</v>
@@ -4238,7 +4305,7 @@
         <v>14</v>
       </c>
       <c r="AP21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ21" t="n">
         <v>23</v>
@@ -4250,13 +4317,13 @@
         <v>15</v>
       </c>
       <c r="AT21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
       </c>
       <c r="AV21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW21" t="n">
         <v>19</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4484,7 @@
         <v>14</v>
       </c>
       <c r="AO22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP22" t="n">
         <v>6</v>
@@ -4426,22 +4493,22 @@
         <v>22</v>
       </c>
       <c r="AR22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX22" t="n">
         <v>25</v>
@@ -4450,13 +4517,13 @@
         <v>2</v>
       </c>
       <c r="AZ22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA22" t="n">
         <v>5</v>
       </c>
       <c r="BB22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC22" t="n">
         <v>4</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -4488,64 +4555,64 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>9</v>
       </c>
       <c r="G23" t="n">
-        <v>0.308</v>
+        <v>0.25</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>35.2</v>
+        <v>34.3</v>
       </c>
       <c r="J23" t="n">
-        <v>79.8</v>
+        <v>79.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.441</v>
+        <v>0.433</v>
       </c>
       <c r="L23" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="M23" t="n">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.335</v>
+        <v>0.329</v>
       </c>
       <c r="O23" t="n">
         <v>16.8</v>
       </c>
       <c r="P23" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="R23" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="S23" t="n">
-        <v>30.4</v>
+        <v>30.9</v>
       </c>
       <c r="T23" t="n">
-        <v>44</v>
+        <v>44.4</v>
       </c>
       <c r="U23" t="n">
-        <v>20.2</v>
+        <v>19.3</v>
       </c>
       <c r="V23" t="n">
-        <v>16.8</v>
+        <v>17.3</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X23" t="n">
         <v>5</v>
@@ -4554,52 +4621,52 @@
         <v>4.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>91.8</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-2.5</v>
+        <v>-3.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF23" t="n">
         <v>22</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AL23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN23" t="n">
         <v>23</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP23" t="n">
         <v>21</v>
@@ -4611,25 +4678,25 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU23" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AV23" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AW23" t="n">
         <v>21</v>
       </c>
       <c r="AX23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ23" t="n">
         <v>13</v>
@@ -4641,7 +4708,7 @@
         <v>27</v>
       </c>
       <c r="BC23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>6.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4778,7 +4845,7 @@
         <v>3</v>
       </c>
       <c r="AN24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO24" t="n">
         <v>21</v>
@@ -4787,7 +4854,7 @@
         <v>25</v>
       </c>
       <c r="AQ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR24" t="n">
         <v>26</v>
@@ -4805,10 +4872,10 @@
         <v>11</v>
       </c>
       <c r="AW24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>21</v>
@@ -4951,7 +5018,7 @@
         <v>27</v>
       </c>
       <c r="AK25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>21</v>
@@ -4960,7 +5027,7 @@
         <v>24</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
         <v>24</v>
@@ -4969,22 +5036,22 @@
         <v>24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR25" t="n">
         <v>27</v>
       </c>
       <c r="AS25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -4996,16 +5063,16 @@
         <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB25" t="n">
         <v>26</v>
       </c>
       <c r="BC25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>21</v>
@@ -5124,7 +5191,7 @@
         <v>22</v>
       </c>
       <c r="AH26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI26" t="n">
         <v>22</v>
@@ -5133,7 +5200,7 @@
         <v>26</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
         <v>22</v>
@@ -5142,7 +5209,7 @@
         <v>23</v>
       </c>
       <c r="AN26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5160,13 +5227,13 @@
         <v>27</v>
       </c>
       <c r="AT26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU26" t="n">
         <v>30</v>
       </c>
       <c r="AV26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW26" t="n">
         <v>20</v>
@@ -5187,7 +5254,7 @@
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -5312,13 +5379,13 @@
         <v>4</v>
       </c>
       <c r="AJ27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
         <v>4</v>
       </c>
       <c r="AL27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM27" t="n">
         <v>9</v>
@@ -5327,13 +5394,13 @@
         <v>2</v>
       </c>
       <c r="AO27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP27" t="n">
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR27" t="n">
         <v>24</v>
@@ -5357,7 +5424,7 @@
         <v>24</v>
       </c>
       <c r="AY27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>0.133</v>
+        <v>0.143</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
@@ -5416,10 +5483,10 @@
         <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>86.40000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L28" t="n">
         <v>4.7</v>
@@ -5428,58 +5495,58 @@
         <v>13.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O28" t="n">
         <v>18.9</v>
       </c>
       <c r="P28" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.761</v>
+        <v>0.77</v>
       </c>
       <c r="R28" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S28" t="n">
-        <v>32.1</v>
+        <v>32.4</v>
       </c>
       <c r="T28" t="n">
-        <v>43.7</v>
+        <v>43.9</v>
       </c>
       <c r="U28" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="V28" t="n">
-        <v>17.4</v>
+        <v>17.9</v>
       </c>
       <c r="W28" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X28" t="n">
         <v>4.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z28" t="n">
         <v>23.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AB28" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF28" t="n">
         <v>30</v>
@@ -5488,16 +5555,16 @@
         <v>30</v>
       </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AI28" t="n">
         <v>5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL28" t="n">
         <v>26</v>
@@ -5506,40 +5573,40 @@
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO28" t="n">
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT28" t="n">
         <v>10</v>
       </c>
-      <c r="AT28" t="n">
-        <v>11</v>
-      </c>
       <c r="AU28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV28" t="n">
         <v>29</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ28" t="n">
         <v>25</v>
@@ -5551,7 +5618,7 @@
         <v>15</v>
       </c>
       <c r="BC28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>13</v>
@@ -5670,7 +5737,7 @@
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
         <v>14</v>
@@ -5700,10 +5767,10 @@
         <v>1</v>
       </c>
       <c r="AR29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT29" t="n">
         <v>26</v>
@@ -5715,7 +5782,7 @@
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -5846,7 +5913,7 @@
         <v>5</v>
       </c>
       <c r="AF30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG30" t="n">
         <v>5</v>
@@ -5870,7 +5937,7 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
         <v>5</v>
@@ -5879,22 +5946,22 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>12</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5903,7 +5970,7 @@
         <v>18</v>
       </c>
       <c r="AY30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
@@ -6022,10 +6089,10 @@
         <v>0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
         <v>13</v>
@@ -6034,7 +6101,7 @@
         <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI31" t="n">
         <v>11</v>
@@ -6043,13 +6110,13 @@
         <v>7</v>
       </c>
       <c r="AK31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
         <v>18</v>
       </c>
       <c r="AM31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN31" t="n">
         <v>24</v>
@@ -6061,10 +6128,10 @@
         <v>7</v>
       </c>
       <c r="AQ31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS31" t="n">
         <v>16</v>
@@ -6082,19 +6149,19 @@
         <v>6</v>
       </c>
       <c r="AX31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY31" t="n">
         <v>14</v>
       </c>
       <c r="AZ31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-27-2007-08</t>
+          <t>2007-11-27</t>
         </is>
       </c>
     </row>
